--- a/AAII_Financials/Quarterly/RMES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RMES_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>RMES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +779,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -980,26 +1000,26 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1007,14 +1027,17 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1098,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1084,7 +1111,7 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -1093,16 +1120,16 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
@@ -1116,8 +1143,11 @@
       <c r="P17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1128,7 +1158,7 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -1137,16 +1167,16 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
@@ -1160,8 +1190,11 @@
       <c r="P18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1256,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1234,7 +1271,7 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -1243,16 +1280,16 @@
         <v>0</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>100</v>
       </c>
-      <c r="J21" s="3">
-        <v>-100</v>
-      </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1304,14 +1344,17 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1331,16 +1374,16 @@
         <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
@@ -1354,8 +1397,11 @@
       <c r="P23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1491,11 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1463,16 +1515,16 @@
         <v>-100</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
@@ -1486,8 +1538,11 @@
       <c r="P26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1507,16 +1562,16 @@
         <v>-100</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
@@ -1530,8 +1585,11 @@
       <c r="P27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,8 +1820,11 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1771,16 +1844,16 @@
         <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
@@ -1794,8 +1867,11 @@
       <c r="P33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1914,11 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1859,16 +1938,16 @@
         <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
@@ -1882,57 +1961,63 @@
       <c r="P35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2053,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1991,11 +2078,11 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2286,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2211,11 +2313,11 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2380,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2284,19 +2392,19 @@
         <v>700</v>
       </c>
       <c r="E48" s="3">
+        <v>700</v>
+      </c>
+      <c r="F48" s="3">
         <v>800</v>
-      </c>
-      <c r="F48" s="3">
-        <v>700</v>
       </c>
       <c r="G48" s="3">
         <v>700</v>
       </c>
       <c r="H48" s="3">
+        <v>700</v>
+      </c>
+      <c r="I48" s="3">
         <v>600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>700</v>
       </c>
       <c r="J48" s="3">
         <v>700</v>
@@ -2305,7 +2413,7 @@
         <v>700</v>
       </c>
       <c r="L48" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M48" s="3">
         <v>600</v>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,19 +2662,22 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E54" s="3">
         <v>800</v>
       </c>
       <c r="F54" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G54" s="3">
         <v>700</v>
@@ -2563,16 +2689,16 @@
         <v>700</v>
       </c>
       <c r="J54" s="3">
+        <v>700</v>
+      </c>
+      <c r="K54" s="3">
         <v>900</v>
-      </c>
-      <c r="K54" s="3">
-        <v>700</v>
       </c>
       <c r="L54" s="3">
         <v>700</v>
       </c>
       <c r="M54" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N54" s="3">
         <v>600</v>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2643,7 +2774,7 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2687,33 +2821,36 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>1300</v>
       </c>
       <c r="L58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M58" s="3">
         <v>1200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1000</v>
       </c>
       <c r="O58" s="3">
         <v>1000</v>
       </c>
       <c r="P58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -2731,19 +2868,19 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>1400</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>1400</v>
       </c>
       <c r="L59" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="M59" s="3">
         <v>1300</v>
       </c>
       <c r="N59" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="O59" s="3">
         <v>1200</v>
@@ -2751,8 +2888,11 @@
       <c r="P59" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2769,57 +2909,60 @@
         <v>400</v>
       </c>
       <c r="H60" s="3">
+        <v>400</v>
+      </c>
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>3000</v>
       </c>
       <c r="K60" s="3">
         <v>3000</v>
       </c>
       <c r="L60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M60" s="3">
         <v>2900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2800</v>
-      </c>
-      <c r="N60" s="3">
-        <v>2600</v>
       </c>
       <c r="O60" s="3">
         <v>2600</v>
       </c>
       <c r="P60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E61" s="3">
         <v>800</v>
       </c>
       <c r="F61" s="3">
+        <v>800</v>
+      </c>
+      <c r="G61" s="3">
         <v>700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>600</v>
-      </c>
-      <c r="H61" s="3">
-        <v>500</v>
       </c>
       <c r="I61" s="3">
         <v>500</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3170,11 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3027,40 +3185,43 @@
         <v>1200</v>
       </c>
       <c r="F66" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G66" s="3">
         <v>1000</v>
       </c>
       <c r="H66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3000</v>
       </c>
       <c r="K66" s="3">
         <v>3000</v>
       </c>
       <c r="L66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M66" s="3">
         <v>2900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2800</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2600</v>
       </c>
       <c r="O66" s="3">
         <v>2600</v>
       </c>
       <c r="P66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q66" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9400</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-9300</v>
       </c>
       <c r="G72" s="3">
         <v>-9300</v>
       </c>
       <c r="H72" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I72" s="3">
         <v>-9200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9200</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-9100</v>
       </c>
       <c r="L72" s="3">
         <v>-9100</v>
       </c>
       <c r="M72" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="N72" s="3">
         <v>-9000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,8 +3612,11 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3438,43 +3624,46 @@
         <v>-500</v>
       </c>
       <c r="E76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-400</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-300</v>
       </c>
       <c r="G76" s="3">
         <v>-300</v>
       </c>
       <c r="H76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I76" s="3">
         <v>-200</v>
       </c>
-      <c r="I76" s="3">
-        <v>-100</v>
-      </c>
       <c r="J76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K76" s="3">
         <v>-2200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2300</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-2200</v>
       </c>
       <c r="M76" s="3">
         <v>-2200</v>
       </c>
       <c r="N76" s="3">
-        <v>-2000</v>
+        <v>-2200</v>
       </c>
       <c r="O76" s="3">
         <v>-2000</v>
       </c>
       <c r="P76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3706,63 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3587,16 +3782,16 @@
         <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
@@ -3610,8 +3805,11 @@
       <c r="P81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,16 +4106,19 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -3913,10 +4130,10 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,25 +4174,26 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>-100</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4095,16 +4325,16 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4333,43 +4579,46 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4661,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4433,14 +4685,14 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -4454,6 +4706,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RMES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RMES_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>RMES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,81 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +785,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,13 +1005,16 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1003,26 +1022,26 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
@@ -1030,14 +1049,17 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,13 +1124,14 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1114,7 +1140,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -1123,16 +1149,16 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
@@ -1146,8 +1172,11 @@
       <c r="Q17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1161,7 +1190,7 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1170,16 +1199,16 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
@@ -1193,8 +1222,11 @@
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1292,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1274,7 +1310,7 @@
         <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1283,16 +1319,16 @@
         <v>0</v>
       </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="K21" s="3">
-        <v>-100</v>
-      </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
         <v>-100</v>
@@ -1306,8 +1342,11 @@
       <c r="Q21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1347,19 +1386,22 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
@@ -1377,16 +1419,16 @@
         <v>-100</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
@@ -1400,8 +1442,11 @@
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,13 +1542,16 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -1518,16 +1569,16 @@
         <v>-100</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
@@ -1541,13 +1592,16 @@
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -1565,16 +1619,16 @@
         <v>-100</v>
       </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
@@ -1588,8 +1642,11 @@
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,13 +1892,16 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -1847,16 +1919,16 @@
         <v>-100</v>
       </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
@@ -1870,8 +1942,11 @@
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,13 +1992,16 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -1941,16 +2019,16 @@
         <v>-100</v>
       </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
@@ -1964,60 +2042,66 @@
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,13 +2139,14 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2081,11 +2167,11 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2101,8 +2187,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2237,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2337,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,13 +2387,16 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2316,11 +2417,11 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2336,8 +2437,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,31 +2487,34 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
         <v>700</v>
       </c>
       <c r="F48" s="3">
+        <v>700</v>
+      </c>
+      <c r="G48" s="3">
         <v>800</v>
-      </c>
-      <c r="G48" s="3">
-        <v>700</v>
       </c>
       <c r="H48" s="3">
         <v>700</v>
       </c>
       <c r="I48" s="3">
+        <v>700</v>
+      </c>
+      <c r="J48" s="3">
         <v>600</v>
-      </c>
-      <c r="J48" s="3">
-        <v>700</v>
       </c>
       <c r="K48" s="3">
         <v>700</v>
@@ -2416,7 +2523,7 @@
         <v>700</v>
       </c>
       <c r="M48" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N48" s="3">
         <v>600</v>
@@ -2430,8 +2537,11 @@
       <c r="Q48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,22 +2787,25 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>800</v>
+      </c>
+      <c r="E54" s="3">
         <v>700</v>
-      </c>
-      <c r="E54" s="3">
-        <v>800</v>
       </c>
       <c r="F54" s="3">
         <v>800</v>
       </c>
       <c r="G54" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H54" s="3">
         <v>700</v>
@@ -2692,16 +2817,16 @@
         <v>700</v>
       </c>
       <c r="K54" s="3">
+        <v>700</v>
+      </c>
+      <c r="L54" s="3">
         <v>900</v>
-      </c>
-      <c r="L54" s="3">
-        <v>700</v>
       </c>
       <c r="M54" s="3">
         <v>700</v>
       </c>
       <c r="N54" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O54" s="3">
         <v>600</v>
@@ -2712,8 +2837,11 @@
       <c r="Q54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,13 +2879,14 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -2777,7 +2907,7 @@
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
@@ -2797,8 +2927,11 @@
       <c r="Q57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2824,36 +2957,39 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>1300</v>
       </c>
       <c r="M58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N58" s="3">
         <v>1200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1000</v>
       </c>
       <c r="P58" s="3">
         <v>1000</v>
       </c>
       <c r="Q58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
-      </c>
-      <c r="E59" s="3">
-        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -2871,19 +3007,19 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>1400</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>1400</v>
       </c>
       <c r="M59" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="N59" s="3">
         <v>1300</v>
       </c>
       <c r="O59" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="P59" s="3">
         <v>1200</v>
@@ -2891,13 +3027,16 @@
       <c r="Q59" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
         <v>400</v>
@@ -2912,60 +3051,63 @@
         <v>400</v>
       </c>
       <c r="I60" s="3">
+        <v>400</v>
+      </c>
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>3000</v>
       </c>
       <c r="L60" s="3">
         <v>3000</v>
       </c>
       <c r="M60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N60" s="3">
         <v>2900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2800</v>
-      </c>
-      <c r="O60" s="3">
-        <v>2600</v>
       </c>
       <c r="P60" s="3">
         <v>2600</v>
       </c>
       <c r="Q60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R60" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>900</v>
+      </c>
+      <c r="E61" s="3">
         <v>700</v>
-      </c>
-      <c r="E61" s="3">
-        <v>800</v>
       </c>
       <c r="F61" s="3">
         <v>800</v>
       </c>
       <c r="G61" s="3">
+        <v>800</v>
+      </c>
+      <c r="H61" s="3">
         <v>700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>600</v>
-      </c>
-      <c r="I61" s="3">
-        <v>500</v>
       </c>
       <c r="J61" s="3">
         <v>500</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -2985,31 +3127,34 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3032,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,8 +3327,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3188,40 +3345,43 @@
         <v>1200</v>
       </c>
       <c r="G66" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="H66" s="3">
         <v>1000</v>
       </c>
       <c r="I66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
-      </c>
-      <c r="K66" s="3">
-        <v>3000</v>
       </c>
       <c r="L66" s="3">
         <v>3000</v>
       </c>
       <c r="M66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N66" s="3">
         <v>2900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2800</v>
-      </c>
-      <c r="O66" s="3">
-        <v>2600</v>
       </c>
       <c r="P66" s="3">
         <v>2600</v>
       </c>
       <c r="Q66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R66" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,8 +3597,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3436,46 +3609,49 @@
         <v>-9600</v>
       </c>
       <c r="E72" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-9500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9400</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-9300</v>
       </c>
       <c r="H72" s="3">
         <v>-9300</v>
       </c>
       <c r="I72" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="J72" s="3">
         <v>-9200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9200</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-9100</v>
       </c>
       <c r="M72" s="3">
         <v>-9100</v>
       </c>
       <c r="N72" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="O72" s="3">
         <v>-9000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,8 +3797,11 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3627,43 +3812,46 @@
         <v>-500</v>
       </c>
       <c r="F76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G76" s="3">
         <v>-400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-300</v>
       </c>
       <c r="H76" s="3">
         <v>-300</v>
       </c>
       <c r="I76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J76" s="3">
         <v>-200</v>
       </c>
-      <c r="J76" s="3">
-        <v>-100</v>
-      </c>
       <c r="K76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L76" s="3">
         <v>-2200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2300</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-2200</v>
       </c>
       <c r="N76" s="3">
         <v>-2200</v>
       </c>
       <c r="O76" s="3">
-        <v>-2000</v>
+        <v>-2200</v>
       </c>
       <c r="P76" s="3">
         <v>-2000</v>
       </c>
       <c r="Q76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="R76" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,65 +3897,71 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
@@ -3785,16 +3979,16 @@
         <v>-100</v>
       </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
@@ -3808,8 +4002,11 @@
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4118,10 +4334,10 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -4133,10 +4349,10 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -4156,8 +4372,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,28 +4394,29 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>-100</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -4222,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,28 +4542,31 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -4363,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,13 +4912,16 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -4688,14 +4939,14 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -4709,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RMES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RMES_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>RMES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,16 +1025,19 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1025,26 +1045,26 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-200</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1052,14 +1072,17 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1134,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
@@ -1143,7 +1170,7 @@
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -1152,16 +1179,16 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
@@ -1175,8 +1202,11 @@
       <c r="R17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,7 +1214,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
@@ -1193,7 +1223,7 @@
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
@@ -1202,16 +1232,16 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
@@ -1225,8 +1255,11 @@
       <c r="R18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
@@ -1313,7 +1350,7 @@
         <v>-100</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
@@ -1322,16 +1359,16 @@
         <v>0</v>
       </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>100</v>
       </c>
-      <c r="L21" s="3">
-        <v>-100</v>
-      </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
         <v>-100</v>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1389,14 +1429,17 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1404,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
@@ -1422,16 +1465,16 @@
         <v>-100</v>
       </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
@@ -1445,8 +1488,11 @@
       <c r="R23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1554,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
@@ -1572,16 +1624,16 @@
         <v>-100</v>
       </c>
       <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
@@ -1595,8 +1647,11 @@
       <c r="R26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1604,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
@@ -1622,16 +1677,16 @@
         <v>-100</v>
       </c>
       <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
@@ -1645,8 +1700,11 @@
       <c r="R27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,8 +1965,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1904,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
@@ -1922,16 +1995,16 @@
         <v>-100</v>
       </c>
       <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
@@ -1945,8 +2018,11 @@
       <c r="R33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2004,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
@@ -2022,16 +2101,16 @@
         <v>-100</v>
       </c>
       <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
@@ -2045,63 +2124,69 @@
       <c r="R35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,17 +2226,18 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -2170,11 +2257,11 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2399,7 +2501,7 @@
         <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -2420,11 +2522,11 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,34 +2595,37 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>700</v>
       </c>
       <c r="F48" s="3">
         <v>700</v>
       </c>
       <c r="G48" s="3">
+        <v>700</v>
+      </c>
+      <c r="H48" s="3">
         <v>800</v>
-      </c>
-      <c r="H48" s="3">
-        <v>700</v>
       </c>
       <c r="I48" s="3">
         <v>700</v>
       </c>
       <c r="J48" s="3">
+        <v>700</v>
+      </c>
+      <c r="K48" s="3">
         <v>600</v>
-      </c>
-      <c r="K48" s="3">
-        <v>700</v>
       </c>
       <c r="L48" s="3">
         <v>700</v>
@@ -2526,7 +2634,7 @@
         <v>700</v>
       </c>
       <c r="N48" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O48" s="3">
         <v>600</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,25 +2913,28 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>900</v>
+      </c>
+      <c r="E54" s="3">
         <v>800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>700</v>
-      </c>
-      <c r="F54" s="3">
-        <v>800</v>
       </c>
       <c r="G54" s="3">
         <v>800</v>
       </c>
       <c r="H54" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I54" s="3">
         <v>700</v>
@@ -2820,16 +2946,16 @@
         <v>700</v>
       </c>
       <c r="L54" s="3">
+        <v>700</v>
+      </c>
+      <c r="M54" s="3">
         <v>900</v>
-      </c>
-      <c r="M54" s="3">
-        <v>700</v>
       </c>
       <c r="N54" s="3">
         <v>700</v>
       </c>
       <c r="O54" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P54" s="3">
         <v>600</v>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,16 +3010,17 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
-      </c>
-      <c r="E57" s="3">
-        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -2910,7 +3041,7 @@
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2960,28 +3094,31 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>1300</v>
       </c>
       <c r="N58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O58" s="3">
         <v>1200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1100</v>
-      </c>
-      <c r="P58" s="3">
-        <v>1000</v>
       </c>
       <c r="Q58" s="3">
         <v>1000</v>
       </c>
       <c r="R58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2989,10 +3126,10 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
+        <v>100</v>
+      </c>
+      <c r="F59" s="3">
         <v>200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -3010,19 +3147,19 @@
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>1400</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>1400</v>
       </c>
       <c r="N59" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="O59" s="3">
         <v>1300</v>
       </c>
       <c r="P59" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="Q59" s="3">
         <v>1200</v>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3039,7 +3179,7 @@
         <v>300</v>
       </c>
       <c r="E60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F60" s="3">
         <v>400</v>
@@ -3054,63 +3194,66 @@
         <v>400</v>
       </c>
       <c r="J60" s="3">
+        <v>400</v>
+      </c>
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>3000</v>
       </c>
       <c r="M60" s="3">
         <v>3000</v>
       </c>
       <c r="N60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O60" s="3">
         <v>2900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2800</v>
-      </c>
-      <c r="P60" s="3">
-        <v>2600</v>
       </c>
       <c r="Q60" s="3">
         <v>2600</v>
       </c>
       <c r="R60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S60" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E61" s="3">
         <v>900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>700</v>
-      </c>
-      <c r="F61" s="3">
-        <v>800</v>
       </c>
       <c r="G61" s="3">
         <v>800</v>
       </c>
       <c r="H61" s="3">
+        <v>800</v>
+      </c>
+      <c r="I61" s="3">
         <v>700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>600</v>
-      </c>
-      <c r="J61" s="3">
-        <v>500</v>
       </c>
       <c r="K61" s="3">
         <v>500</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3130,16 +3273,19 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3">
+        <v>100</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
@@ -3156,8 +3302,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,13 +3485,16 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="E66" s="3">
         <v>1200</v>
@@ -3348,40 +3506,43 @@
         <v>1200</v>
       </c>
       <c r="H66" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="I66" s="3">
         <v>1000</v>
       </c>
       <c r="J66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>800</v>
-      </c>
-      <c r="L66" s="3">
-        <v>3000</v>
       </c>
       <c r="M66" s="3">
         <v>3000</v>
       </c>
       <c r="N66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O66" s="3">
         <v>2900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2800</v>
-      </c>
-      <c r="P66" s="3">
-        <v>2600</v>
       </c>
       <c r="Q66" s="3">
         <v>2600</v>
       </c>
       <c r="R66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S66" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3612,46 +3786,49 @@
         <v>-9600</v>
       </c>
       <c r="F72" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="G72" s="3">
         <v>-9500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9400</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-9300</v>
       </c>
       <c r="I72" s="3">
         <v>-9300</v>
       </c>
       <c r="J72" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-9200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9200</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-9100</v>
       </c>
       <c r="N72" s="3">
         <v>-9100</v>
       </c>
       <c r="O72" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="P72" s="3">
         <v>-9000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,8 +3983,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3815,43 +4001,46 @@
         <v>-500</v>
       </c>
       <c r="G76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H76" s="3">
         <v>-400</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-300</v>
       </c>
       <c r="I76" s="3">
         <v>-300</v>
       </c>
       <c r="J76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="K76" s="3">
-        <v>-100</v>
-      </c>
       <c r="L76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M76" s="3">
         <v>-2200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2300</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-2200</v>
       </c>
       <c r="O76" s="3">
         <v>-2200</v>
       </c>
       <c r="P76" s="3">
-        <v>-2000</v>
+        <v>-2200</v>
       </c>
       <c r="Q76" s="3">
         <v>-2000</v>
       </c>
       <c r="R76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="S76" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3964,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
@@ -3982,16 +4177,16 @@
         <v>-100</v>
       </c>
       <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
@@ -4005,8 +4200,11 @@
       <c r="R81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4337,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -4352,10 +4569,10 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,31 +4615,32 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>-100</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,31 +4772,34 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,17 +5164,20 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -4942,14 +5194,14 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RMES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RMES_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>RMES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,19 +1045,22 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1048,26 +1068,26 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1075,14 +1095,17 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1164,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
@@ -1173,7 +1200,7 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
@@ -1182,16 +1209,16 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
@@ -1205,8 +1232,11 @@
       <c r="S17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1217,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
@@ -1226,7 +1256,7 @@
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -1235,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
-        <v>-100</v>
-      </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1344,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
         <v>-100</v>
@@ -1353,7 +1390,7 @@
         <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
@@ -1362,16 +1399,16 @@
         <v>0</v>
       </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>100</v>
       </c>
-      <c r="M21" s="3">
-        <v>-100</v>
-      </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
         <v>-100</v>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1432,14 +1472,17 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1450,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
@@ -1468,16 +1511,16 @@
         <v>-100</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
-        <v>-100</v>
-      </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
@@ -1491,8 +1534,11 @@
       <c r="S23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1609,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
@@ -1627,16 +1679,16 @@
         <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
-        <v>-100</v>
-      </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
@@ -1650,8 +1702,11 @@
       <c r="S26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1662,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
@@ -1680,16 +1735,16 @@
         <v>-100</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
-        <v>-100</v>
-      </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
@@ -1703,8 +1758,11 @@
       <c r="S27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,8 +2038,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1980,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
@@ -1998,16 +2071,16 @@
         <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
-        <v>-100</v>
-      </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2086,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
@@ -2104,16 +2183,16 @@
         <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
-        <v>-100</v>
-      </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,20 +2313,21 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -2260,11 +2347,11 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,19 +2591,22 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -2525,11 +2627,11 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2607,28 +2715,28 @@
         <v>700</v>
       </c>
       <c r="E48" s="3">
+        <v>700</v>
+      </c>
+      <c r="F48" s="3">
         <v>600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>700</v>
       </c>
       <c r="G48" s="3">
         <v>700</v>
       </c>
       <c r="H48" s="3">
+        <v>700</v>
+      </c>
+      <c r="I48" s="3">
         <v>800</v>
-      </c>
-      <c r="I48" s="3">
-        <v>700</v>
       </c>
       <c r="J48" s="3">
         <v>700</v>
       </c>
       <c r="K48" s="3">
+        <v>700</v>
+      </c>
+      <c r="L48" s="3">
         <v>600</v>
-      </c>
-      <c r="L48" s="3">
-        <v>700</v>
       </c>
       <c r="M48" s="3">
         <v>700</v>
@@ -2637,7 +2745,7 @@
         <v>700</v>
       </c>
       <c r="O48" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P48" s="3">
         <v>600</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,28 +3039,31 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>800</v>
+      </c>
+      <c r="E54" s="3">
         <v>900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>700</v>
-      </c>
-      <c r="G54" s="3">
-        <v>800</v>
       </c>
       <c r="H54" s="3">
         <v>800</v>
       </c>
       <c r="I54" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J54" s="3">
         <v>700</v>
@@ -2949,16 +3075,16 @@
         <v>700</v>
       </c>
       <c r="M54" s="3">
+        <v>700</v>
+      </c>
+      <c r="N54" s="3">
         <v>900</v>
-      </c>
-      <c r="N54" s="3">
-        <v>700</v>
       </c>
       <c r="O54" s="3">
         <v>700</v>
       </c>
       <c r="P54" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q54" s="3">
         <v>600</v>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,19 +3141,20 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
@@ -3044,7 +3175,7 @@
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3097,28 +3231,31 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>1300</v>
       </c>
       <c r="O58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P58" s="3">
         <v>1200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>1000</v>
       </c>
       <c r="R58" s="3">
         <v>1000</v>
       </c>
       <c r="S58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3129,10 +3266,10 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
         <v>200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
@@ -3150,19 +3287,19 @@
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>1400</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>1400</v>
       </c>
       <c r="O59" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="P59" s="3">
         <v>1300</v>
       </c>
       <c r="Q59" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="R59" s="3">
         <v>1200</v>
@@ -3170,19 +3307,22 @@
       <c r="S59" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>300</v>
       </c>
       <c r="F60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>400</v>
@@ -3197,34 +3337,37 @@
         <v>400</v>
       </c>
       <c r="K60" s="3">
+        <v>400</v>
+      </c>
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>3000</v>
       </c>
       <c r="N60" s="3">
         <v>3000</v>
       </c>
       <c r="O60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P60" s="3">
         <v>2900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2800</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>2600</v>
       </c>
       <c r="R60" s="3">
         <v>2600</v>
       </c>
       <c r="S60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="T60" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3232,31 +3375,31 @@
         <v>1000</v>
       </c>
       <c r="E61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F61" s="3">
         <v>900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>700</v>
-      </c>
-      <c r="G61" s="3">
-        <v>800</v>
       </c>
       <c r="H61" s="3">
         <v>800</v>
       </c>
       <c r="I61" s="3">
+        <v>800</v>
+      </c>
+      <c r="J61" s="3">
         <v>700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>600</v>
-      </c>
-      <c r="K61" s="3">
-        <v>500</v>
       </c>
       <c r="L61" s="3">
         <v>500</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3287,8 +3433,8 @@
       <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>100</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -3305,8 +3451,8 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,16 +3643,19 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1400</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1200</v>
       </c>
       <c r="F66" s="3">
         <v>1200</v>
@@ -3509,40 +3667,43 @@
         <v>1200</v>
       </c>
       <c r="I66" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="J66" s="3">
         <v>1000</v>
       </c>
       <c r="K66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>800</v>
-      </c>
-      <c r="M66" s="3">
-        <v>3000</v>
       </c>
       <c r="N66" s="3">
         <v>3000</v>
       </c>
       <c r="O66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P66" s="3">
         <v>2900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2800</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>2600</v>
       </c>
       <c r="R66" s="3">
         <v>2600</v>
       </c>
       <c r="S66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="T66" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3789,46 +3963,49 @@
         <v>-9600</v>
       </c>
       <c r="G72" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="H72" s="3">
         <v>-9500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9400</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-9300</v>
       </c>
       <c r="J72" s="3">
         <v>-9300</v>
       </c>
       <c r="K72" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="L72" s="3">
         <v>-9200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9200</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-9100</v>
       </c>
       <c r="O72" s="3">
         <v>-9100</v>
       </c>
       <c r="P72" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,8 +4169,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4004,43 +4190,46 @@
         <v>-500</v>
       </c>
       <c r="H76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I76" s="3">
         <v>-400</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-300</v>
       </c>
       <c r="J76" s="3">
         <v>-300</v>
       </c>
       <c r="K76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3">
-        <v>-100</v>
-      </c>
       <c r="M76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N76" s="3">
         <v>-2200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2300</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-2200</v>
       </c>
       <c r="P76" s="3">
         <v>-2200</v>
       </c>
       <c r="Q76" s="3">
-        <v>-2000</v>
+        <v>-2200</v>
       </c>
       <c r="R76" s="3">
         <v>-2000</v>
       </c>
       <c r="S76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="T76" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4162,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
@@ -4180,16 +4375,16 @@
         <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
-        <v>-100</v>
-      </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,13 +4756,16 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -4557,10 +4774,10 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -4572,10 +4789,10 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4627,23 +4848,23 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>-100</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,34 +5002,37 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,20 +5416,23 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -5197,14 +5449,14 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RMES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RMES_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>RMES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,22 +1065,25 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1071,26 +1091,26 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-200</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1098,14 +1118,17 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,13 +1205,14 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1194,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
@@ -1203,7 +1230,7 @@
         <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -1212,16 +1239,16 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
@@ -1235,8 +1262,11 @@
       <c r="T17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1250,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
@@ -1259,7 +1289,7 @@
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -1268,16 +1298,16 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
-        <v>-100</v>
-      </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
@@ -1291,8 +1321,11 @@
       <c r="T18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1403,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1384,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
@@ -1393,7 +1430,7 @@
         <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
@@ -1402,16 +1439,16 @@
         <v>0</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>100</v>
       </c>
-      <c r="N21" s="3">
-        <v>-100</v>
-      </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
         <v>-100</v>
@@ -1425,8 +1462,11 @@
       <c r="T21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1475,19 +1515,22 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1496,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
@@ -1514,16 +1557,16 @@
         <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
@@ -1537,8 +1580,11 @@
       <c r="T23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,13 +1698,16 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1664,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
@@ -1682,16 +1734,16 @@
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
@@ -1705,13 +1757,16 @@
       <c r="T26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1720,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
@@ -1738,16 +1793,16 @@
         <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
@@ -1761,8 +1816,11 @@
       <c r="T27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,13 +2111,16 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2056,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
@@ -2074,16 +2147,16 @@
         <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
@@ -2097,8 +2170,11 @@
       <c r="T33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,13 +2229,16 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2168,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
@@ -2186,16 +2265,16 @@
         <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
@@ -2209,69 +2288,75 @@
       <c r="T35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,23 +2400,24 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2350,11 +2437,11 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2370,8 +2457,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,22 +2693,25 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
-      </c>
-      <c r="E46" s="3">
-        <v>200</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -2630,11 +2732,11 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2811,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2718,28 +2826,28 @@
         <v>700</v>
       </c>
       <c r="F48" s="3">
+        <v>700</v>
+      </c>
+      <c r="G48" s="3">
         <v>600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>700</v>
       </c>
       <c r="H48" s="3">
         <v>700</v>
       </c>
       <c r="I48" s="3">
+        <v>700</v>
+      </c>
+      <c r="J48" s="3">
         <v>800</v>
-      </c>
-      <c r="J48" s="3">
-        <v>700</v>
       </c>
       <c r="K48" s="3">
         <v>700</v>
       </c>
       <c r="L48" s="3">
+        <v>700</v>
+      </c>
+      <c r="M48" s="3">
         <v>600</v>
-      </c>
-      <c r="M48" s="3">
-        <v>700</v>
       </c>
       <c r="N48" s="3">
         <v>700</v>
@@ -2748,7 +2856,7 @@
         <v>700</v>
       </c>
       <c r="P48" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q48" s="3">
         <v>600</v>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3165,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3051,22 +3177,22 @@
         <v>800</v>
       </c>
       <c r="E54" s="3">
+        <v>800</v>
+      </c>
+      <c r="F54" s="3">
         <v>900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>700</v>
-      </c>
-      <c r="H54" s="3">
-        <v>800</v>
       </c>
       <c r="I54" s="3">
         <v>800</v>
       </c>
       <c r="J54" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K54" s="3">
         <v>700</v>
@@ -3078,16 +3204,16 @@
         <v>700</v>
       </c>
       <c r="N54" s="3">
+        <v>700</v>
+      </c>
+      <c r="O54" s="3">
         <v>900</v>
-      </c>
-      <c r="O54" s="3">
-        <v>700</v>
       </c>
       <c r="P54" s="3">
         <v>700</v>
       </c>
       <c r="Q54" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="R54" s="3">
         <v>600</v>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,22 +3272,23 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -3178,7 +3309,7 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3234,28 +3368,31 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>1300</v>
       </c>
       <c r="P58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1100</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1000</v>
       </c>
       <c r="S58" s="3">
         <v>1000</v>
       </c>
       <c r="T58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3269,10 +3406,10 @@
         <v>100</v>
       </c>
       <c r="G59" s="3">
+        <v>100</v>
+      </c>
+      <c r="H59" s="3">
         <v>200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -3290,19 +3427,19 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>1400</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>1400</v>
       </c>
       <c r="P59" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="Q59" s="3">
         <v>1300</v>
       </c>
       <c r="R59" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="S59" s="3">
         <v>1200</v>
@@ -3310,8 +3447,11 @@
       <c r="T59" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3319,13 +3459,13 @@
         <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F60" s="3">
         <v>300</v>
       </c>
       <c r="G60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>400</v>
@@ -3340,69 +3480,72 @@
         <v>400</v>
       </c>
       <c r="L60" s="3">
+        <v>400</v>
+      </c>
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>3000</v>
       </c>
       <c r="O60" s="3">
         <v>3000</v>
       </c>
       <c r="P60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2800</v>
-      </c>
-      <c r="R60" s="3">
-        <v>2600</v>
       </c>
       <c r="S60" s="3">
         <v>2600</v>
       </c>
       <c r="T60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="U60" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E61" s="3">
         <v>1000</v>
       </c>
       <c r="F61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G61" s="3">
         <v>900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>700</v>
-      </c>
-      <c r="H61" s="3">
-        <v>800</v>
       </c>
       <c r="I61" s="3">
         <v>800</v>
       </c>
       <c r="J61" s="3">
+        <v>800</v>
+      </c>
+      <c r="K61" s="3">
         <v>700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>600</v>
-      </c>
-      <c r="L61" s="3">
-        <v>500</v>
       </c>
       <c r="M61" s="3">
         <v>500</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3436,8 +3582,8 @@
       <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -3454,8 +3600,8 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,19 +3801,22 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1400</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1200</v>
       </c>
       <c r="G66" s="3">
         <v>1200</v>
@@ -3670,40 +3828,43 @@
         <v>1200</v>
       </c>
       <c r="J66" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K66" s="3">
         <v>1000</v>
       </c>
       <c r="L66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>800</v>
-      </c>
-      <c r="N66" s="3">
-        <v>3000</v>
       </c>
       <c r="O66" s="3">
         <v>3000</v>
       </c>
       <c r="P66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q66" s="3">
         <v>2900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2800</v>
-      </c>
-      <c r="R66" s="3">
-        <v>2600</v>
       </c>
       <c r="S66" s="3">
         <v>2600</v>
       </c>
       <c r="T66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="U66" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,13 +4119,16 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-9600</v>
+        <v>-9700</v>
       </c>
       <c r="E72" s="3">
         <v>-9600</v>
@@ -3966,46 +4140,49 @@
         <v>-9600</v>
       </c>
       <c r="H72" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="I72" s="3">
         <v>-9500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9400</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-9300</v>
       </c>
       <c r="K72" s="3">
         <v>-9300</v>
       </c>
       <c r="L72" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="M72" s="3">
         <v>-9200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9200</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-9100</v>
       </c>
       <c r="P72" s="3">
         <v>-9100</v>
       </c>
       <c r="Q72" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="R72" s="3">
         <v>-9000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,13 +4355,16 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E76" s="3">
         <v>-500</v>
@@ -4193,43 +4379,46 @@
         <v>-500</v>
       </c>
       <c r="I76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J76" s="3">
         <v>-400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-300</v>
       </c>
       <c r="K76" s="3">
         <v>-300</v>
       </c>
       <c r="L76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3">
-        <v>-100</v>
-      </c>
       <c r="N76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O76" s="3">
         <v>-2200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2300</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-2200</v>
       </c>
       <c r="Q76" s="3">
         <v>-2200</v>
       </c>
       <c r="R76" s="3">
-        <v>-2000</v>
+        <v>-2200</v>
       </c>
       <c r="S76" s="3">
         <v>-2000</v>
       </c>
       <c r="T76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="U76" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,74 +4473,80 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -4360,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
@@ -4378,16 +4573,16 @@
         <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
@@ -4401,8 +4596,11 @@
       <c r="T81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4973,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,7 +4985,7 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -4777,10 +4994,10 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -4792,10 +5009,10 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -4815,8 +5032,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,13 +5057,14 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
@@ -4851,23 +5072,23 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>-100</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,37 +5232,40 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5550,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5316,55 +5562,58 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5668,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5428,14 +5680,14 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -5452,14 +5704,14 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5725,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RMES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RMES_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>RMES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,96 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1077,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1094,26 +1113,26 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-200</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
@@ -1121,14 +1140,17 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,8 +1231,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1215,7 +1241,7 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1224,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
@@ -1233,7 +1259,7 @@
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -1242,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
@@ -1265,8 +1291,11 @@
       <c r="U17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,7 +1303,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1283,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
@@ -1292,7 +1321,7 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -1301,16 +1330,16 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
-        <v>-100</v>
-      </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
@@ -1324,8 +1353,11 @@
       <c r="U18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1406,8 +1439,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1415,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -1424,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
@@ -1433,7 +1469,7 @@
         <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
@@ -1442,16 +1478,16 @@
         <v>0</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>100</v>
       </c>
-      <c r="O21" s="3">
-        <v>-100</v>
-      </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
         <v>-100</v>
@@ -1465,8 +1501,11 @@
       <c r="U21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1518,14 +1557,17 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1533,7 +1575,7 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1542,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
@@ -1560,16 +1602,16 @@
         <v>-100</v>
       </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
@@ -1583,8 +1625,11 @@
       <c r="U23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,8 +1749,11 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1710,7 +1761,7 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1719,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
@@ -1737,16 +1788,16 @@
         <v>-100</v>
       </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
@@ -1760,8 +1811,11 @@
       <c r="U26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1769,7 +1823,7 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1778,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
@@ -1796,16 +1850,16 @@
         <v>-100</v>
       </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
@@ -1819,8 +1873,11 @@
       <c r="U27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2114,8 +2183,11 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2123,7 +2195,7 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -2132,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
@@ -2150,16 +2222,16 @@
         <v>-100</v>
       </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
@@ -2173,8 +2245,11 @@
       <c r="U33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,8 +2307,11 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2241,7 +2319,7 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -2250,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
@@ -2268,16 +2346,16 @@
         <v>-100</v>
       </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
@@ -2291,72 +2369,78 @@
       <c r="U35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,26 +2486,27 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2440,11 +2526,11 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -2460,8 +2546,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,25 +2794,28 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -2735,11 +2836,11 @@
         <v>0</v>
       </c>
       <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
@@ -2755,8 +2856,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,13 +2918,16 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E48" s="3">
         <v>700</v>
@@ -2829,28 +2936,28 @@
         <v>700</v>
       </c>
       <c r="G48" s="3">
+        <v>700</v>
+      </c>
+      <c r="H48" s="3">
         <v>600</v>
-      </c>
-      <c r="H48" s="3">
-        <v>700</v>
       </c>
       <c r="I48" s="3">
         <v>700</v>
       </c>
       <c r="J48" s="3">
+        <v>700</v>
+      </c>
+      <c r="K48" s="3">
         <v>800</v>
-      </c>
-      <c r="K48" s="3">
-        <v>700</v>
       </c>
       <c r="L48" s="3">
         <v>700</v>
       </c>
       <c r="M48" s="3">
+        <v>700</v>
+      </c>
+      <c r="N48" s="3">
         <v>600</v>
-      </c>
-      <c r="N48" s="3">
-        <v>700</v>
       </c>
       <c r="O48" s="3">
         <v>700</v>
@@ -2859,7 +2966,7 @@
         <v>700</v>
       </c>
       <c r="Q48" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="R48" s="3">
         <v>600</v>
@@ -2873,8 +2980,11 @@
       <c r="U48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,34 +3290,37 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E54" s="3">
         <v>800</v>
       </c>
       <c r="F54" s="3">
+        <v>800</v>
+      </c>
+      <c r="G54" s="3">
         <v>900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>800</v>
       </c>
       <c r="J54" s="3">
         <v>800</v>
       </c>
       <c r="K54" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L54" s="3">
         <v>700</v>
@@ -3207,16 +3332,16 @@
         <v>700</v>
       </c>
       <c r="O54" s="3">
+        <v>700</v>
+      </c>
+      <c r="P54" s="3">
         <v>900</v>
-      </c>
-      <c r="P54" s="3">
-        <v>700</v>
       </c>
       <c r="Q54" s="3">
         <v>700</v>
       </c>
       <c r="R54" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="S54" s="3">
         <v>600</v>
@@ -3227,8 +3352,11 @@
       <c r="U54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3282,16 +3412,16 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -3312,7 +3442,7 @@
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
@@ -3332,8 +3462,11 @@
       <c r="U57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3371,33 +3504,36 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>1300</v>
       </c>
       <c r="Q58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R58" s="3">
         <v>1200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1100</v>
-      </c>
-      <c r="S58" s="3">
-        <v>1000</v>
       </c>
       <c r="T58" s="3">
         <v>1000</v>
       </c>
       <c r="U58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -3409,10 +3545,10 @@
         <v>100</v>
       </c>
       <c r="H59" s="3">
+        <v>100</v>
+      </c>
+      <c r="I59" s="3">
         <v>200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -3430,19 +3566,19 @@
         <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>1400</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>1400</v>
       </c>
       <c r="Q59" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="R59" s="3">
         <v>1300</v>
       </c>
       <c r="S59" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T59" s="3">
         <v>1200</v>
@@ -3450,25 +3586,28 @@
       <c r="U59" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
       </c>
       <c r="F60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>300</v>
       </c>
       <c r="H60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I60" s="3">
         <v>400</v>
@@ -3483,72 +3622,75 @@
         <v>400</v>
       </c>
       <c r="M60" s="3">
+        <v>400</v>
+      </c>
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>3000</v>
       </c>
       <c r="P60" s="3">
         <v>3000</v>
       </c>
       <c r="Q60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R60" s="3">
         <v>2900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2800</v>
-      </c>
-      <c r="S60" s="3">
-        <v>2600</v>
       </c>
       <c r="T60" s="3">
         <v>2600</v>
       </c>
       <c r="U60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V60" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E61" s="3">
         <v>1100</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1000</v>
       </c>
       <c r="F61" s="3">
         <v>1000</v>
       </c>
       <c r="G61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H61" s="3">
         <v>900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>700</v>
-      </c>
-      <c r="I61" s="3">
-        <v>800</v>
       </c>
       <c r="J61" s="3">
         <v>800</v>
       </c>
       <c r="K61" s="3">
+        <v>800</v>
+      </c>
+      <c r="L61" s="3">
         <v>700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>600</v>
-      </c>
-      <c r="M61" s="3">
-        <v>500</v>
       </c>
       <c r="N61" s="3">
         <v>500</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -3568,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3585,8 +3730,8 @@
       <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -3603,8 +3748,8 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3627,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,22 +3958,25 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1200</v>
       </c>
       <c r="H66" s="3">
         <v>1200</v>
@@ -3831,40 +3988,43 @@
         <v>1200</v>
       </c>
       <c r="K66" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L66" s="3">
         <v>1000</v>
       </c>
       <c r="M66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>800</v>
-      </c>
-      <c r="O66" s="3">
-        <v>3000</v>
       </c>
       <c r="P66" s="3">
         <v>3000</v>
       </c>
       <c r="Q66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R66" s="3">
         <v>2900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2800</v>
-      </c>
-      <c r="S66" s="3">
-        <v>2600</v>
       </c>
       <c r="T66" s="3">
         <v>2600</v>
       </c>
       <c r="U66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V66" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,16 +4292,19 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9700</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-9600</v>
       </c>
       <c r="F72" s="3">
         <v>-9600</v>
@@ -4143,46 +4316,49 @@
         <v>-9600</v>
       </c>
       <c r="I72" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="J72" s="3">
         <v>-9500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9400</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-9300</v>
       </c>
       <c r="L72" s="3">
         <v>-9300</v>
       </c>
       <c r="M72" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="N72" s="3">
         <v>-9200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9200</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-9100</v>
       </c>
       <c r="Q72" s="3">
         <v>-9100</v>
       </c>
       <c r="R72" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="S72" s="3">
         <v>-9000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-8800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,16 +4540,19 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-600</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-500</v>
       </c>
       <c r="F76" s="3">
         <v>-500</v>
@@ -4382,43 +4567,46 @@
         <v>-500</v>
       </c>
       <c r="J76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K76" s="3">
         <v>-400</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-300</v>
       </c>
       <c r="L76" s="3">
         <v>-300</v>
       </c>
       <c r="M76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="N76" s="3">
-        <v>-100</v>
-      </c>
       <c r="O76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P76" s="3">
         <v>-2200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2300</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-2200</v>
       </c>
       <c r="R76" s="3">
         <v>-2200</v>
       </c>
       <c r="S76" s="3">
-        <v>-2000</v>
+        <v>-2200</v>
       </c>
       <c r="T76" s="3">
         <v>-2000</v>
       </c>
       <c r="U76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="V76" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,72 +4664,78 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4549,7 +4743,7 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -4558,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
@@ -4576,16 +4770,16 @@
         <v>-100</v>
       </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
@@ -4599,8 +4793,11 @@
       <c r="U81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4988,7 +5204,7 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -4997,10 +5213,10 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -5012,10 +5228,10 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -5035,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,16 +5277,17 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
@@ -5075,23 +5295,23 @@
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>-100</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5117,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,40 +5461,43 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5294,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,26 +5919,29 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -5707,14 +5958,14 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -5728,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RMES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RMES_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>RMES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,13 +976,14 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1099,16 +1119,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1116,26 +1136,26 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-200</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
@@ -1143,14 +1163,17 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,19 +1258,20 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -1253,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
@@ -1262,7 +1289,7 @@
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -1271,16 +1298,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
@@ -1294,8 +1321,11 @@
       <c r="V17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1306,7 +1336,7 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -1315,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
@@ -1324,7 +1354,7 @@
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
@@ -1333,16 +1363,16 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1454,7 +1491,7 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -1463,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
@@ -1472,7 +1509,7 @@
         <v>-100</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
@@ -1481,16 +1518,16 @@
         <v>0</v>
       </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>100</v>
       </c>
-      <c r="P21" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3">
         <v>-100</v>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1560,25 +1600,28 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -1587,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
@@ -1605,16 +1648,16 @@
         <v>-100</v>
       </c>
       <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
@@ -1628,8 +1671,11 @@
       <c r="V23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,19 +1801,22 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -1773,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
@@ -1791,16 +1843,16 @@
         <v>-100</v>
       </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
@@ -1814,19 +1866,22 @@
       <c r="V26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -1835,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
@@ -1853,16 +1908,16 @@
         <v>-100</v>
       </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
@@ -1876,8 +1931,11 @@
       <c r="V27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,19 +2256,22 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -2207,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
@@ -2225,16 +2298,16 @@
         <v>-100</v>
       </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
@@ -2248,8 +2321,11 @@
       <c r="V33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,19 +2386,22 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -2331,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
@@ -2349,16 +2428,16 @@
         <v>-100</v>
       </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
@@ -2372,75 +2451,81 @@
       <c r="V35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2496,20 +2583,20 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2529,11 +2616,11 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,13 +2831,16 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2797,28 +2896,31 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>100</v>
-      </c>
-      <c r="G46" s="3">
-        <v>200</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -2839,11 +2941,11 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,16 +3026,19 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
         <v>800</v>
-      </c>
-      <c r="E48" s="3">
-        <v>700</v>
       </c>
       <c r="F48" s="3">
         <v>700</v>
@@ -2939,28 +3047,28 @@
         <v>700</v>
       </c>
       <c r="H48" s="3">
+        <v>700</v>
+      </c>
+      <c r="I48" s="3">
         <v>600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>700</v>
       </c>
       <c r="J48" s="3">
         <v>700</v>
       </c>
       <c r="K48" s="3">
+        <v>700</v>
+      </c>
+      <c r="L48" s="3">
         <v>800</v>
-      </c>
-      <c r="L48" s="3">
-        <v>700</v>
       </c>
       <c r="M48" s="3">
         <v>700</v>
       </c>
       <c r="N48" s="3">
+        <v>700</v>
+      </c>
+      <c r="O48" s="3">
         <v>600</v>
-      </c>
-      <c r="O48" s="3">
-        <v>700</v>
       </c>
       <c r="P48" s="3">
         <v>700</v>
@@ -2969,7 +3077,7 @@
         <v>700</v>
       </c>
       <c r="R48" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="S48" s="3">
         <v>600</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,37 +3416,40 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E54" s="3">
         <v>900</v>
-      </c>
-      <c r="E54" s="3">
-        <v>800</v>
       </c>
       <c r="F54" s="3">
         <v>800</v>
       </c>
       <c r="G54" s="3">
+        <v>800</v>
+      </c>
+      <c r="H54" s="3">
         <v>900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>800</v>
       </c>
       <c r="K54" s="3">
         <v>800</v>
       </c>
       <c r="L54" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M54" s="3">
         <v>700</v>
@@ -3335,16 +3461,16 @@
         <v>700</v>
       </c>
       <c r="P54" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q54" s="3">
         <v>900</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>700</v>
       </c>
       <c r="R54" s="3">
         <v>700</v>
       </c>
       <c r="S54" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T54" s="3">
         <v>600</v>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3415,16 +3546,16 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -3445,7 +3576,7 @@
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3507,36 +3641,39 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>1300</v>
       </c>
       <c r="R58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S58" s="3">
         <v>1200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1100</v>
-      </c>
-      <c r="T58" s="3">
-        <v>1000</v>
       </c>
       <c r="U58" s="3">
         <v>1000</v>
       </c>
       <c r="V58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
-      </c>
-      <c r="E59" s="3">
-        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -3548,10 +3685,10 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
+        <v>100</v>
+      </c>
+      <c r="J59" s="3">
         <v>200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -3569,19 +3706,19 @@
         <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>1400</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>1400</v>
       </c>
       <c r="R59" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="S59" s="3">
         <v>1300</v>
       </c>
       <c r="T59" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="U59" s="3">
         <v>1200</v>
@@ -3589,28 +3726,31 @@
       <c r="V59" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
         <v>300</v>
-      </c>
-      <c r="E60" s="3">
-        <v>200</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
       </c>
       <c r="G60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
       </c>
       <c r="I60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J60" s="3">
         <v>400</v>
@@ -3625,34 +3765,37 @@
         <v>400</v>
       </c>
       <c r="N60" s="3">
+        <v>400</v>
+      </c>
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>3000</v>
       </c>
       <c r="Q60" s="3">
         <v>3000</v>
       </c>
       <c r="R60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S60" s="3">
         <v>2900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2800</v>
-      </c>
-      <c r="T60" s="3">
-        <v>2600</v>
       </c>
       <c r="U60" s="3">
         <v>2600</v>
       </c>
       <c r="V60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="W60" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3660,40 +3803,40 @@
         <v>1200</v>
       </c>
       <c r="E61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F61" s="3">
         <v>1100</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1000</v>
       </c>
       <c r="G61" s="3">
         <v>1000</v>
       </c>
       <c r="H61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I61" s="3">
         <v>900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>700</v>
-      </c>
-      <c r="J61" s="3">
-        <v>800</v>
       </c>
       <c r="K61" s="3">
         <v>800</v>
       </c>
       <c r="L61" s="3">
+        <v>800</v>
+      </c>
+      <c r="M61" s="3">
         <v>700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>600</v>
-      </c>
-      <c r="N61" s="3">
-        <v>500</v>
       </c>
       <c r="O61" s="3">
         <v>500</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3733,8 +3879,8 @@
       <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -3751,8 +3897,8 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,25 +4116,28 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1200</v>
       </c>
       <c r="I66" s="3">
         <v>1200</v>
@@ -3991,40 +4149,43 @@
         <v>1200</v>
       </c>
       <c r="L66" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M66" s="3">
         <v>1000</v>
       </c>
       <c r="N66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
-      </c>
-      <c r="P66" s="3">
-        <v>3000</v>
       </c>
       <c r="Q66" s="3">
         <v>3000</v>
       </c>
       <c r="R66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S66" s="3">
         <v>2900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2800</v>
-      </c>
-      <c r="T66" s="3">
-        <v>2600</v>
       </c>
       <c r="U66" s="3">
         <v>2600</v>
       </c>
       <c r="V66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="W66" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,19 +4466,22 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9700</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-9600</v>
       </c>
       <c r="G72" s="3">
         <v>-9600</v>
@@ -4319,46 +4493,49 @@
         <v>-9600</v>
       </c>
       <c r="J72" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-9500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9400</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-9300</v>
       </c>
       <c r="M72" s="3">
         <v>-9300</v>
       </c>
       <c r="N72" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="O72" s="3">
         <v>-9200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9200</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-9100</v>
       </c>
       <c r="R72" s="3">
         <v>-9100</v>
       </c>
       <c r="S72" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="T72" s="3">
         <v>-9000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-8900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,8 +4726,11 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4552,10 +4738,10 @@
         <v>-700</v>
       </c>
       <c r="E76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-600</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-500</v>
       </c>
       <c r="G76" s="3">
         <v>-500</v>
@@ -4570,43 +4756,46 @@
         <v>-500</v>
       </c>
       <c r="K76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L76" s="3">
         <v>-400</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-300</v>
       </c>
       <c r="M76" s="3">
         <v>-300</v>
       </c>
       <c r="N76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3">
-        <v>-100</v>
-      </c>
       <c r="P76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2300</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-2200</v>
       </c>
       <c r="S76" s="3">
         <v>-2200</v>
       </c>
       <c r="T76" s="3">
-        <v>-2000</v>
+        <v>-2200</v>
       </c>
       <c r="U76" s="3">
         <v>-2000</v>
       </c>
       <c r="V76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="W76" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,86 +4856,92 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
@@ -4755,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
@@ -4773,16 +4968,16 @@
         <v>-100</v>
       </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
@@ -4796,8 +4991,11 @@
       <c r="V81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,13 +5406,16 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -5207,7 +5424,7 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -5216,10 +5433,10 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -5231,10 +5448,10 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,19 +5498,20 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -5298,23 +5519,23 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>-100</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,43 +5691,46 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,29 +6171,32 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>800</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>-100</v>
-      </c>
       <c r="F102" s="3">
         <v>-100</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -5961,14 +6213,14 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>
